--- a/specifications/stock/Business intelligence systems - Project - Stock Data Specification V2.11.xlsx
+++ b/specifications/stock/Business intelligence systems - Project - Stock Data Specification V2.11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ShrForms\specifications\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462C767B-0401-4AD6-AA74-AA7E33526E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126FE41-C203-49D2-B1FF-059B0D18C766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="799" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="2" r:id="rId1"/>
@@ -2194,9 +2194,6 @@
     <t>Amend approval screen</t>
   </si>
   <si>
-    <t xml:space="preserve">cn_provisionasatdate </t>
-  </si>
-  <si>
     <t>Amend Provision as at date Field ID. Add CSV column names</t>
   </si>
   <si>
@@ -2249,6 +2246,9 @@
   </si>
   <si>
     <t>Revised approval page fields</t>
+  </si>
+  <si>
+    <t>cn_provisionasatdate</t>
   </si>
 </sst>
 </file>
@@ -3961,7 +3961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -4076,7 +4076,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -4084,13 +4084,13 @@
         <v>44468</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D9" s="98" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="14.25" x14ac:dyDescent="0.2">
@@ -4098,13 +4098,13 @@
         <v>44468</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D10" s="98" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" s="99" t="s">
         <v>538</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -4466,15 +4466,15 @@
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B5" s="63"/>
       <c r="D5" s="63"/>
       <c r="E5" s="23" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4787,12 +4787,12 @@
   </sheetPr>
   <dimension ref="A1:AE201"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C192" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B15" sqref="B15"/>
       <selection pane="topRight" activeCell="B15" sqref="B15"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
-      <selection pane="bottomRight" activeCell="L199" sqref="L199"/>
+      <selection pane="bottomRight" activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13263,19 +13263,19 @@
         <v>158</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D191" s="19" t="s">
         <v>365</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F191" s="18" t="s">
         <v>507</v>
       </c>
       <c r="G191" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H191" s="20"/>
       <c r="I191" s="37" t="s">
@@ -13311,7 +13311,7 @@
         <v>170</v>
       </c>
       <c r="C192" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>361</v>
@@ -13359,10 +13359,10 @@
         <v>169</v>
       </c>
       <c r="C193" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E193" s="33" t="s">
         <v>519</v>
@@ -13404,13 +13404,13 @@
         <v>714</v>
       </c>
       <c r="B194" s="100" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="C194" s="33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E194" s="6" t="s">
         <v>364</v>
@@ -13457,7 +13457,7 @@
         <v>383</v>
       </c>
       <c r="C195" s="54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D195" s="60"/>
       <c r="E195" s="33" t="s">
@@ -13546,7 +13546,7 @@
       <c r="J197" s="36"/>
       <c r="K197" s="36"/>
       <c r="L197" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M197" s="34"/>
       <c r="N197" s="38"/>
@@ -13591,7 +13591,7 @@
       <c r="J198" s="36"/>
       <c r="K198" s="36"/>
       <c r="L198" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M198" s="34"/>
       <c r="N198" s="38"/>
@@ -13636,7 +13636,7 @@
       <c r="J199" s="36"/>
       <c r="K199" s="36"/>
       <c r="L199" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M199" s="34"/>
       <c r="N199" s="38"/>
